--- a/uploads/file.xlsx
+++ b/uploads/file.xlsx
@@ -129,36 +129,8 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,7 +442,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -601,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -642,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -683,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -724,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -765,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -806,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -847,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -888,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -929,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -970,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1011,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1052,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1093,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1134,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1175,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9999999</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/file.xlsx
+++ b/uploads/file.xlsx
@@ -1,95 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hxxu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_stored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,48 +95,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +131,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -189,7 +143,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,7 +162,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -243,7 +197,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -423,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,66 +410,86 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/file.xlsx
+++ b/uploads/file.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hxxu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hxxu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34040" windowHeight="18440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -22,38 +22,66 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>框</t>
+    <t>is_stored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -62,16 +90,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,20 +124,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -131,7 +188,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +200,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -162,7 +219,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,7 +254,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -377,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,86 +467,1583 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H10">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>26</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>27</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>28</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>29</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>123</v>
+      </c>
+      <c r="B35">
+        <v>123</v>
+      </c>
+      <c r="C35">
+        <v>123</v>
+      </c>
+      <c r="D35">
+        <v>123</v>
+      </c>
+      <c r="E35">
+        <v>123</v>
+      </c>
+      <c r="F35">
+        <v>123</v>
+      </c>
+      <c r="G35">
+        <v>123</v>
+      </c>
+      <c r="H35">
+        <v>123</v>
+      </c>
+      <c r="I35">
+        <v>123</v>
+      </c>
+      <c r="J35">
+        <v>123</v>
+      </c>
+      <c r="K35">
+        <v>123</v>
+      </c>
+      <c r="L35">
+        <v>123</v>
+      </c>
+      <c r="M35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>123</v>
+      </c>
+      <c r="D36">
+        <v>123</v>
+      </c>
+      <c r="E36">
+        <v>123</v>
+      </c>
+      <c r="F36">
+        <v>123</v>
+      </c>
+      <c r="G36">
+        <v>123</v>
+      </c>
+      <c r="H36">
+        <v>123</v>
+      </c>
+      <c r="I36">
+        <v>123</v>
+      </c>
+      <c r="J36">
+        <v>123</v>
+      </c>
+      <c r="K36">
+        <v>123</v>
+      </c>
+      <c r="L36">
+        <v>123</v>
+      </c>
+      <c r="M36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>123</v>
+      </c>
+      <c r="B37">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>123</v>
+      </c>
+      <c r="E37">
+        <v>123</v>
+      </c>
+      <c r="F37">
+        <v>123</v>
+      </c>
+      <c r="G37">
+        <v>123</v>
+      </c>
+      <c r="H37">
+        <v>123</v>
+      </c>
+      <c r="I37">
+        <v>123</v>
+      </c>
+      <c r="J37">
+        <v>123</v>
+      </c>
+      <c r="K37">
+        <v>123</v>
+      </c>
+      <c r="L37">
+        <v>123</v>
+      </c>
+      <c r="M37">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>324</v>
+      </c>
+      <c r="B38">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>324</v>
+      </c>
+      <c r="D38">
+        <v>324</v>
+      </c>
+      <c r="E38">
+        <v>324</v>
+      </c>
+      <c r="F38">
+        <v>324</v>
+      </c>
+      <c r="G38">
+        <v>324</v>
+      </c>
+      <c r="H38">
+        <v>324</v>
+      </c>
+      <c r="I38">
+        <v>324</v>
+      </c>
+      <c r="J38">
+        <v>324</v>
+      </c>
+      <c r="K38">
+        <v>324</v>
+      </c>
+      <c r="L38">
+        <v>324</v>
+      </c>
+      <c r="M38">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>54</v>
+      </c>
+      <c r="E39">
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <v>54</v>
+      </c>
+      <c r="G39">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>54</v>
+      </c>
+      <c r="I39">
+        <v>54</v>
+      </c>
+      <c r="J39">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>54</v>
+      </c>
+      <c r="L39">
+        <v>54</v>
+      </c>
+      <c r="M39">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>